--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -451,267 +451,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>001050</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>91.70</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>007593</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>95.57</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>94.61</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,25 +862,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>008969</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>睿远均衡价值三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>152.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>009147</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>建信新能源行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519700</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银主题优选混合</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.75</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006281</t>
+          <t>550015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家人工智能混合</t>
+          <t>信诚至远灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.95</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>70.48</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5942</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.39</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>519700</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>交银主题优选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501069</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007257</t>
+          <t>001521</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>凯石沣混合A</t>
+          <t>国寿安保成长优选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.17</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007258</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>凯石沣混合C</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.17</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>020009</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>国泰金鹏蓝筹混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010780</t>
+          <t>001672</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合C</t>
+          <t>国寿安保智慧生活股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>550016</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>信诚至远灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>006281</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>万家人工智能混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>95.80</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.59</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>020009</t>
+          <t>010779</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰金鹏蓝筹混合</t>
+          <t>西部利得量化优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001521</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国寿安保成长优选股票</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>160415</t>
+          <t>008082</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华安量化多因子混合（LOF）</t>
+          <t>国寿安保研究精选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>550015</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>信诚至远灵活配置混合A</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>550016</t>
+          <t>010780</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>信诚至远灵活配置混合C</t>
+          <t>西部利得量化优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>007257</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>凯石沣混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008969</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合A</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>007258</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>凯石沣混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008082</t>
+          <t>008083</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合A</t>
+          <t>国寿安保研究精选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>61.40</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008083</t>
+          <t>160415</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合C</t>
+          <t>华安量化多因子混合（LOF）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>61.40</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009147</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>建信新能源行业股票</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7913</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3291,4 +3292,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3300,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,17 +3312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3331,14 +3352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>169.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3347,14 +3390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.31</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3363,14 +3428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.32</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3379,13 +3466,1937 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7346</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4669</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4299</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0933</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9838</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9070</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7290</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6726</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5295,7 +5296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5306,17 +5307,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5326,14 +5347,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.26</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5342,14 +5385,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5358,14 +5423,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.31</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5374,14 +5461,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.32</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5390,13 +5499,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6074,7 +6075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6085,17 +6086,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6105,14 +6126,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.16</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>146.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6121,14 +6164,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.26</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6137,14 +6202,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6153,14 +6240,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.31</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6169,14 +6278,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.32</v>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>104.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6185,13 +6316,1133 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7448</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4732</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4531</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3677</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0904</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9698</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7143</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014573</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红锦弘甄选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>35.13</v>
+        <v>55.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>24.16</v>
+        <v>35.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>42.26</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>4.31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>13.32</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -600,6 +617,3216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5463</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6685</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2691</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1531</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红沪港深混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9346</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8998</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8795</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8147</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7826</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7577</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6626</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6291</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6236</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5145</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013294</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014573</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方红锦弘甄选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012949</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013295</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012950</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1833,7 +5060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2611,7 +5838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4605,7 +7832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5383,7 +8610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5895,7 +9122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7091,7 +10318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002028-思源电气.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>55.57</v>
+        <v>41.57</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>35.13</v>
+        <v>55.57</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16</v>
+        <v>35.13</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>42.26</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>4.31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>13.32</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,390 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +994,2754 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0984</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0340</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7350</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6358</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5274</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀碳中和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014573</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红锦弘甄选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012949</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012253</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010870</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富稳健鑫添益六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012950</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012254</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016168</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>017537</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3826,7 +6951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5060,7 +8185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5838,7 +8963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7832,7 +10957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8610,7 +11735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9122,7 +12247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10316,364 +13441,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5576</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0614</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0614</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0438</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>